--- a/biology/Neurosciences/Jean-Claude_Heudin/Jean-Claude_Heudin.xlsx
+++ b/biology/Neurosciences/Jean-Claude_Heudin/Jean-Claude_Heudin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Claude Heudin est un scientifique français s'intéressant à l'intelligence artificielle, la vie artificielle et, plus généralement, aux sciences de la complexité.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après une dizaine d'années d'expérience dans les grandes entreprises de l'électronique et de la télécommunication, il obtient en 1988 un doctorat de l'Université d'Orsay (Paris-Sud) consacré à un système multi-expert temps réel et un microprocesseur RISC dédié à l'intelligence artificielle[1]. Ce dispositif reçoit un premier prix de recherche et innovation.
-Cofondateur d'une société spécialisée en Intelligence artificielle (IA), le chercheur participe jusqu’en 1995 à plusieurs applications importantes pour la défense et l'industrie. En 1996, il reçoit l'habilitation de l'université Paris-Sud à diriger des recherches en sciences (HDR) dans le domaine des « architectures et algorithmes biomimétiques »[2].
-La même année, il rejoint le pôle universitaire Léonard de Vinci (Paris - La Défense) en tant que professeur titulaire. Il participe alors à la création de l’Institut de l’Internet et du Multimédia et dirige son laboratoire. En 2012, il devient le directeur de l'école et porte ses effectifs à plus de 1500 étudiants[3],[4]. En 2017, il est responsable du groupe de recherche Digital du DeVinci Research Center.
-Jean-Claude Heudin a également été expert auprès de l'Union européenne pour les projets « Future Emerging technologies ». Il a conseillé les expositions « Les défis du vivant » et « Sciences et science fiction » de la Cité des Sciences. En 1998 et 2000, il initie les conférences internationales « Virtual Worlds » sur les Métavers[5],[6]. Il a participé au comité éditorial du portail scientifique « science.gouv.fr » à sa création.
-Le chercheur a publié de nombreux articles de niveau international[7] et plusieurs ouvrages aux éditions Odile Jacob[8] puis Science-eBook dont il est le fondateur.
-Depuis 2017, il se consacre à la recherche en Intelligence artificielle appliquée à la musique électronique[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une dizaine d'années d'expérience dans les grandes entreprises de l'électronique et de la télécommunication, il obtient en 1988 un doctorat de l'Université d'Orsay (Paris-Sud) consacré à un système multi-expert temps réel et un microprocesseur RISC dédié à l'intelligence artificielle. Ce dispositif reçoit un premier prix de recherche et innovation.
+Cofondateur d'une société spécialisée en Intelligence artificielle (IA), le chercheur participe jusqu’en 1995 à plusieurs applications importantes pour la défense et l'industrie. En 1996, il reçoit l'habilitation de l'université Paris-Sud à diriger des recherches en sciences (HDR) dans le domaine des « architectures et algorithmes biomimétiques ».
+La même année, il rejoint le pôle universitaire Léonard de Vinci (Paris - La Défense) en tant que professeur titulaire. Il participe alors à la création de l’Institut de l’Internet et du Multimédia et dirige son laboratoire. En 2012, il devient le directeur de l'école et porte ses effectifs à plus de 1500 étudiants,. En 2017, il est responsable du groupe de recherche Digital du DeVinci Research Center.
+Jean-Claude Heudin a également été expert auprès de l'Union européenne pour les projets « Future Emerging technologies ». Il a conseillé les expositions « Les défis du vivant » et « Sciences et science fiction » de la Cité des Sciences. En 1998 et 2000, il initie les conférences internationales « Virtual Worlds » sur les Métavers,. Il a participé au comité éditorial du portail scientifique « science.gouv.fr » à sa création.
+Le chercheur a publié de nombreux articles de niveau international et plusieurs ouvrages aux éditions Odile Jacob puis Science-eBook dont il est le fondateur.
+Depuis 2017, il se consacre à la recherche en Intelligence artificielle appliquée à la musique électronique.
 </t>
         </is>
       </c>
